--- a/data/trans_bre/P20D1_R_2023-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P20D1_R_2023-Provincia-trans_bre.xlsx
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>16.14609721129197</v>
+        <v>16.04589399115974</v>
       </c>
       <c r="D5" s="6" t="inlineStr"/>
     </row>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>100</v>
+        <v>84.34887221572986</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>43.7520854281757</v>
+        <v>43.75208542817571</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>2.78840710659608</v>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.517184033828501</v>
+        <v>6.721040939469533</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2990101822716527</v>
+        <v>-0.1424913798740712</v>
       </c>
     </row>
     <row r="9">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>76.2386241004845</v>
+        <v>77.8795580635753</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>19.95122568006874</v>
+        <v>17.17756273094281</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.5157874481808327</v>
+        <v>0.3568304617199294</v>
       </c>
     </row>
     <row r="12">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>83.98948344991085</v>
+        <v>81.60520500660448</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>65.95288906255053</v>
+        <v>65.9528890625505</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>6.599297892469306</v>
+        <v>6.599297892469304</v>
       </c>
     </row>
     <row r="14">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>30.34345211485333</v>
+        <v>29.51073374445392</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
     </row>
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>89.20079913926769</v>
+        <v>91.3105524574276</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -782,9 +782,11 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.880609498580374</v>
-      </c>
-      <c r="D20" s="6" t="inlineStr"/>
+        <v>1.547300524370248</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.126388039409271</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -794,9 +796,11 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>84.75171213157114</v>
-      </c>
-      <c r="D21" s="6" t="inlineStr"/>
+        <v>84.38562868851821</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>11.51830095904177</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -810,10 +814,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>27.34701329314483</v>
+        <v>27.34701329314484</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2.519775435370274</v>
+        <v>2.519775435370275</v>
       </c>
     </row>
     <row r="23">
@@ -824,7 +828,7 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.322365480063658</v>
+        <v>-4.880826263721351</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
     </row>
@@ -836,7 +840,7 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>49.64755076759435</v>
+        <v>50.3312720221551</v>
       </c>
       <c r="D24" s="6" t="inlineStr"/>
     </row>
@@ -880,7 +884,7 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>51.34273195176514</v>
+        <v>52.58631407412722</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
     </row>
@@ -896,7 +900,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>38.68640156302595</v>
+        <v>38.68640156302596</v>
       </c>
       <c r="D28" s="6" t="n">
         <v>3.022341424798265</v>
@@ -910,10 +914,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.79736177811656</v>
+        <v>24.94339985814292</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>0.9244016906194455</v>
+        <v>1.211181095605292</v>
       </c>
     </row>
     <row r="30">
@@ -924,10 +928,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>53.3549673081141</v>
+        <v>53.38702727823329</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>6.847872957269728</v>
+        <v>7.697486171470699</v>
       </c>
     </row>
     <row r="31">
